--- a/downloads/Черновик подтверждения заказа №NN04 от 04.12.2011.xlsx
+++ b/downloads/Черновик подтверждения заказа №NN04 от 04.12.2011.xlsx
@@ -42,7 +42,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">05.09.2016 20:21</x:t>
+      <x:t xml:space="preserve">06.09.2016 12:46</x:t>
     </x:r>
   </x:si>
   <x:si>
